--- a/500all/speech_level/speeches_CHRG-114hhrg22393.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22393.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="478">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412270</t>
   </si>
   <si>
-    <t>Jason Chaffetz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Chaffetz. Good morning. The Committee on Oversight and Government Reform will come to order. Without objection, the chair is authorized to declare a recess at any time.    Today's hearing is the third in a series examining the State Department's construction of diplomatic facilities overseas. In July, we learned how State failed to properly acknowledge known risk in the construction of the new embassy in Kabul, Afghanistan. Building the embassy in Kabul has taken longer and cost hundreds of millions of dollars more than budgeted, leaving embassy staff in less secure and temporary facilities. In September, we saw how a long delay to design and build consulates in Matamoros and Nuevo Laredo, Mexico, exposed personnel to some unnecessary risk. And today we hope to understand the State Department's progress in the building a new embassy in London, perhaps the single largest expenditure we've had on such a building.    Obviously, the United States needs a large, secure, and functional embassy in the capital of one of its oldest and most important allies. Certainly, our presence in London is noteworthy and it needs to provide a variety of functions, above and beyond what other embassies, I'm sure, are called upon to do. But one of the things we're concerned about is the State's gambling with Federal dollars to get the embassy that our diplomats need.    Over the summer, the State Department inspector general issued a report on its findings regarding the London embassy construction. The inspector general found that while the agency has certified to Congress its plan for a new embassy would be secure, in reality that was not necessarily the case at that time. In fact, State had no idea that the embassy had met security standards, but it started the construction anyway.    State's premature certification and construction violated Federal law and its own internal policies, which required State to prove the new embassy would be safe before construction began. Construction in London began before State even blast tested the embassy's outside wall, a test designed to ensure the safety of the building and its personnel.    Rather than admitting that it violated Federal law, State doubled down. Outside the building, called the curtain wall, had failed several computerized blast tests. In fact, let's put up a picture of the rendering. This is just a rendering, not a picture, but a rendering of what the new embassy is supposed to look like in its finality. The outside of the building, called the curtain wall, had failed several computerized blast tests.    Thank you. You can take that down.    State's Diplomatic Security Bureau required Overseas Buildings Operations to do full-scale blast test using explosives rather than a computerized simulation. That blast test did not start until at least 3 months after State certified to Congress that the curtain wall was safe. And the curtain wall did not actually pass blast testing until approximately 6 months after the certification and construction had begun.    Proceeding without knowing whether the building would be safe was gambling with the government's money, and we're concerned about that long term. State is freely spending tax dollars on its embassy and consulate construction around the world, yet asserts it is, quote-unquote, self-funding the London project through sales of other properties in London.    But that's part of the problem with the London embassy construction. State sold its current embassy in London to a group of investors, and under the deal State has to leave its current space by early of 2017. Significant financial penalties to State and ultimately the taxpayers will be incurred should construction run over schedule. As we've learned over several past hearings on the subject, most of the time, at least our experience, that has happened.    Fear of those penalties drove State to take significant risks to meet its aggressive schedule. These risks include contracting vehicle never before used by the State Department. According to the inspector general, the contracting officer did not fully understand the contract. That lack of understanding resulted in the Overseas Building Operations office and the inspector general's inability to account for roughly $42 million. The IG does not believe the money is missing. It's just not accounted for due to mismanagement.    Quite frankly, I can't tell the difference. If they can't account for it and they can't find it, I just don't know how it's not missing, and that's part of what we're hoping to clear up here today.    Even accepting the IG's conclusion, this shows that State, trying to meet perhaps too aggressive a construction schedule, made another gamble by using a contracting vehicle that it did not understand. State did accept the inspector general's recommendation that it offer additional training for future contracts of this sort, but there are some other challenges and questions we have that we hope to have clarified regarding the London embassy project.    The State Department spent $1 million, evidently, on a granite sculpture that was too heavy for the new embassy. However, no one figured that out before spending the money. In addition, the glass for the curtain wall should have been earning some frequent flyer miles as press reports indicate the glass was manufactured in Europe, shipped to the United States under guard for framing, and then sent back across the Atlantic for installation in London. State's under secretary for management, the same person who certified the construction could begin before the blast testing, dismissed the criticism, saying, quote, ``Sometimes you have to move things, sometimes you don't,'' end quote.    And finally, the documents produced to the committee show that State authorized what appears to be $12 million in soil remediation. As we have discussed in other hearings this year, particularly in Mexico City, State apparently doesn't mind building embassies in places where the soil is contaminated. We would like to learn more about what's happening there.    We need to get our people in safe facilities as quickly as possible. We don't need to take wild risks and freely spend money that could otherwise be used to get other folks in high-risk places into safer facilities.    Building and construction is a volatile situation. There are many, many moving parts, and things change and adapt as they move over time. We understand that. There needs to be some degree of flexibility. But with two outstanding recommendations from the inspector general, we would like to have those resolved and have this discussion.    This is a billion-dollar expenditure and we need to get it right, because London is one of our most important embassies on the face of the planet, and we need to make sure that it's done right and properly and we account for, in this case, tens of millions of dollars that we can't seem to find.    So, with that, I would now like to recognize the distinguished member, the ranking member, Mr. Cummings, for his opening statement.</t>
   </si>
   <si>
     <t>400090</t>
   </si>
   <si>
-    <t>Elijah E. Cummings</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cummings. Thank you very much, Mr. Chairman, for calling today's very important hearing.    As I said at our first hearing on the London embassy project back in July of last year, our diplomats overseas deserve the most secure embassies in the world. Today, a year and a half later, I am pleased that experts from the State Department and its construction contractor have confirmed that this project is meeting all security specifications, including for the glass curtain wall that is being built to comply with all of the required security standards.    The recent attacks in Paris, as well as those here in the United States, remind us that we face threats not only in high-risk locations like Afghanistan. And, of course, London has been the victim of its own horrific terrorist attacks, including the 2005 suicide bomb attacks against the public transit system that killed 52 people, as well as the stabbing last Friday, the details of which are still being investigated. As the President discussed in his speech Sunday night, the terrorist threats continue to evolve here and abroad.    In Assistant Secretary Starr's written testimony today, he highlights the Department's efforts to research, develop, and evaluate new and innovative methods in order to protect our people in the face of this ever-changing threat. In addition to meeting all of the required security standards, construction of the London embassy remains on budget and on schedule according to the State Department.    In her written testimony at today's hearing, Lydia Muniz, the director of the Bureau of Overseas Buildings Operations, states that this project, and I quote, ``is on budget and on schedule to be completed at the end of 2016,'' end of quote.    Some people may not know this, but this entire project is being funded through proceeds from the sale of our existing embassy property in London, meaning that this project has posed no additional cost to the United States taxpayers. Meeting security, budget, and schedule milestones during such a large-scale and complex project is no small feat. The Department has a rigorous construction schedule so that it can move our personnel from the existing outdated embassy to the new facility as quickly as possible.    I also want to thank the inspector general for being here today and for the work of his office in ensuring that funding is being used judiciously on this project. We've come a long way since the massive cost overruns and delays we saw in the construction of the U.S. Embassy in Iraq during the previous administration. However, we must always strive to continue improving our processes. So I thank the inspector general for his report, and I look forward to hearing about any remaining concerns that may still need to be addressed with regard to this project.    The new embassy currently being built in London will have more stringent security features than found in many other high-profile buildings throughout the world, including the building we are sitting in right here today in Washington, D.C. These features include blast resistant setbacks from the street, anticlimb barriers, and a number of other specifications.    Today, I hope our State Department witnesses will discuss all of these issues. But I also hope they will address one more. While we must ensure that our diplomats serving overseas have secure facilities, we also have to make sure they are able to do their jobs. According to press reports, many diplomats are concerned that the United States will not be well served by preventing our diplomats from being able to interact abroad. They are concerned that a fortress mentality will impair their work.    So, in addition to addressing security concerns, which are paramount, I hope our witnesses here today will also discuss how they plan for the new embassy to operate in a way that maximizes the functions of our critical international diplomacy while keeping our diplomats safe.    With that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -76,27 +70,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Muniz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Muniz. Thank you.    Chairman Chaffetz, Ranking Member Cummings, and members of the committee, I appreciate the opportunity to appear before you today to discuss the U.S. Department of State's project to build a new U.S. Embassy in London. I'm Lydia Muniz, director of the Bureau of Overseas Buildings Operations at the U.S. Department of State.    As the single real property manager for all U.S. Government diplomatic properties overseas, OBO manages the design, construction, acquisition, sale, and maintenance of the Department's worldwide property portfolio. That portfolio includes the property platform supporting 275 missions in 190 countries and has over $14 billion in projects in design and construction.    Like you, the State Department is deeply committed to the safety and security of our personnel serving abroad. Every new design and construction project that OBO undertakes meets the security and life safety standards required by law and by our team of experts in the Bureau of Diplomatic Security and within OBO. We work with DS at all steps of the process to ensure that security standards are met in our designs and that security considerations are addressed in our operations.    In 1960, the Department of State opened a new U.S. Embassy in London located on Grosvenor Square. Not surprisingly, security and life safety standards have evolved significantly since that time and the Chancery does not meet current security and life safety standards. In addition, after more than 50 years of occupancy, the facility has aged and is in need of extensive investments in infrastructure.    In 2006, OBO examined several options to renovate the aging Chancery. At that time, a major rehabilitation of the facility was estimated to cost approximately $550 million and to take nearly 7 years to complete. The quandary was that even after such a significant investment, the Chancery would still not meet the most critical security standards.    So OBO began exploring alternative solutions and in 2007 developed a plan to finance a new embassy project through an innovative property swap of existing U.S. Government property in London. The solution would allow OBO to construct a new, safe, and secure Chancery using no new appropriated funds. As envisioned, the project remains financed entirely from the proceeds of sale of existing functional property, and I'm pleased to report that the project is on budget and on schedule to be completed at the end of 2016.    Some have asked about the innovative design of the new London embassy. It is a strong design that meets not only the Department's high standards for security and safety, but also stringent local requirements for design and sustainability. It is essentially a steel-framed cube with a glass curtain wall. The project is efficient, makes maximum use of development rights on limited real estate, and makes use of best practices more than innovation.    This committee has inquired about the use of glass curtain walls. Glass curtain walls are nonload-bearing exterior walls that typically provide for large, unobstructed spans of glass across multiple floors. Curtain wall systems have been used by the design and construction industry since the early 1900s, and the Department has used curtain wall systems in over a dozen embassy and consulate projects since the 1950s.    Among the benefits of curtain wall systems when used with steel frame construction are that they are particularly efficient in terms of space utilization and can be erected faster than a built-in-place solution such as poured concrete, effectively shortening construction durations. More importantly, regardless of design or construction methodology and materials, all new U.S. embassies and consulates adhere to the same security and safety standards.    When looking at the challenges of providing an updated facility in London, the Department could have simply stopped at an expensive major rehabilitation that would have been funded with appropriated dollars and still not resolved the significant security deficiencies. Instead, the Department developed an innovative financial and design solution that will provide for a modern, secure facility at no cost to the U.S. taxpayer. The development of creative solutions, mindful of limited resources, is what government should be about.    We must protect our staff serving abroad, and using the lessons learned over decades, we can design and build embassies and consulates to better serve our mission and colleagues, are a better value to the U.S. taxpayer, and make better use of scarce resources in the short and long term. Security, safety, and excellence in diplomatic facilities are mutually reinforcing, not mutually exclusive.    U.S. embassies the world over serve as visible reminders of America's influence and global diplomatic presence. They are symbols of America's culture and values. Just as importantly, they are safe, secure, and functional platforms from which our staff advance vital U.S. foreign policy objectives. With the depth and breadth of its responsibilities, our embassy in London will soon have a platform that does all of these things and that better supports their critical work with one of our oldest friends and most important allies.    I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    Mr. Starr, you're now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Starr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Starr. Chairman Chaffetz, Ranking Member Cummings, and distinguished committee members, good morning. And I want to thank you for your invitation to appear today to discuss the construction of the U.S. Embassy in London. I, along with my colleagues at the Department of State, look forward to working with you to examine the issue and illustrate how we collectively support the men and women who serve at this mission with a safe and secure facility.    As the assistant secretary for diplomatic security, I work every single day with my colleagues to ensure a safe environment for our people. Environments in which we operate today require comprehensive planning, agile decisionmaking, and deft diplomacy. Most of all, they require us to be present, fully engaged, and 100 percent committed to the security of our people and our facilities.    The U.S. Embassy in London is an exceptionally important platform for diplomatic and consular engagement to advance our national interests in this country. As you know, I work closely with my colleagues in the Bureau of Overseas Buildings Operations as the Department builds diplomatic missions that increase the safety and security, as well as meet rigorous security standards.    Concerning the U.S. Embassy in London, DS has worked with OBO throughout the design and construction project to ensure that this project would be executed while meeting the security standards.    As you know, the threats faced by the Department are ever-evolving. In response to this changing environment, DS commits a significant amount of time and effort and energy towards research and evaluation in order to ensure our facilities are able to combat such threats. The outcome of this innovation provides DS with different designs and different building methodologies that accommodate the Department in these environments.    We owe it to our diplomats, along with our security professionals in the field, to provide them with safe, secure platforms from which they can operate. I want to thank Congress for the resources and support that you have provided and look forward to your continued support in years ahead.    Thank you. And I will be glad to answer any questions you have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Chaffetz. Thank you.    Mr. Linick, you're now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Linick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Linick. Chairman Chaffetz, Ranking Member Cummings, and members of the committee, thank you for inviting me to testify about OIG's July 2015 audit of the new embassy compound in London and its implications for future Department of State construction projects.    At a cost of more than a billion dollars, the London embassy project is among the most expensive embassies built by the State Department. Our audit had two objectives. First, we sought to determine whether the Department resolved security issues before allowing construction to begin associated with the exterior glass curtain wall on the outer facade of the Chancery building. Department policy required that those security issues be resolved before construction could begin. Second, OIG sought to determine whether the Department adhered to Federal contracting requirements in negotiating the price for the construction of the London compound when it accepted $42 million in additional contract expenses without obtaining sufficient justification for them.    We found the Department's practices in both areas, the timing of the security certification and the acceptance of the added expenses, did not conform to applicable requirements. As a result, we made four recommendations which are in the process of being addressed by the Department. Two have been closed. Let me briefly discuss our security-related findings first.    The Department's physical security standards require most new office buildings to provide adequate safeguards to protect people from the effects of explosions and projectiles. The exterior curtain wall at the London compound had to meet criteria that includes blast protection requirements.    Within the Department, the Bureau of Overseas Buildings Operations, OBO, directs building programs and the Bureau of Diplomatic Security, DS, is responsible for overseeing new construction to ensure compliance with security standards. By statute, the Department must certify to Congress that a construction project for a new embassy will provide proper security before it undertakes such a project.    The Department's published interpretation and implementation of the statute is contained in the Foreign Affairs Manual. It states that no construct should be awarded or construction undertaken before certification.    Notwithstanding this policy, since at least 2003 the Department has followed the practice of authorizing construction contractors to begin work prior to certification. In the case of the London compound, the contract award, site work, and construction began many months before the Department certified the project to Congress in December of 2013 as providing adequate security protection.    OIG is also concerned that the Department certified the safety of the project without obtaining blast testing results. The blast testing was not completed until May of 2014, more than 6 months after certification. As early as November 2012, DS notified OBO of its concerns with the curtain wall design and reiterated that a full blast test needed to be completed to ensure that the wall met standards. DS changed course after the director of OBO provided a written assurance shortly before certification that it would address any issues should the test fail. DS and OBO ultimately agreed that the curtain met standards.    By initiating construction without first completing the blast testing, the Department committed itself to constructing a building that could have required significant redesign, potentially placing the Department and taxpayers at financial risk.    Let me turn to OIG's second area of concern, the Departments contracting process. The Department initially targeted early 2017 as the move-in date for the London compound. To meet this target, the Department chose a new contracting strategy, the Early Contractor Involvement, or ECI, which was intended to shorten the time between design and construction by involving the construction contractor early in the process.    London was the Department's first experience with ECI. Under Federal rules, a contractor using the ECI is required to submit two pricing proposals to the government. The first one is an initial target price for construction which is submitted at a point where project design is partially completed. The second one is a final price proposal submitted at a later stage of the design phase. Under the rules, the contractor is required to submit sufficient data to support any difference in price so the government can effectively negotiate a firm, fixed price.    In the case of the London compound, the Department's contracting officer negotiated the final price of the contract without requiring the contractor to explain adequately a $42 million difference between the initial proposal and the final proposal.    In sum, our findings and recommendations, if implemented, will have a positive impact on future Department projects and reduce risk to taxpayers. Thank you again for the opportunity to discuss this work, and I look forward to addressing your questions.</t>
   </si>
   <si>
@@ -415,9 +400,6 @@
     <t>400273</t>
   </si>
   <si>
-    <t>John L. Mica</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mica. Thank you, Mr. Chairman.    Well, we're spending a lot of money on this facility. I guess it's in the billion-dollar range, if that's correct. And we're designing it--well, it was designed an unsafe or unsecure manner based on some requirements that we should be following. We have--State relies on--the State Department relies on an unpublished 2003 draft memorandum between the Bureaus of Overseas Buildings Operations and Diplomatic Security rather than Federal law and FAM. Is that correct?</t>
   </si>
   <si>
@@ -559,9 +541,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you, Mr. Chairman, for calling this important meeting.    And I'd like to ask Assistant Secretary Starr, our number one focus is to protect the men and women who are serving our country overseas. And is this facility secure? Are they protected in this London facility that you're building?</t>
   </si>
   <si>
@@ -610,9 +589,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman.    We hear a lot about construction today. Obviously, it's a very important topic. But I believe today's hearing is also about the process, it's about accountability, it's about transparency.    In 2013, December 2013, the under secretary for management certified to us in Congress that the State had ensured the adequacy of all safety-related measures. In fact, the DS had expressed concern about State's use of computer modeling to simulate this blast testing for the curtain wall, and they ordered a full mockup blast test before certification was appropriate.    The problem is, is that testing did not start until February 2014 and was not complete until May of 2014. It is not clear in the certification package to Congress that State provided notice that blast tests was ongoing. And here's the questions. There's a couple of them.    Did State's certification to Congress in December 2013 explicitly alert the committees that State had not even begun blast testing?    Ms. Muniz, I'll start with you.</t>
   </si>
   <si>
@@ -706,9 +682,6 @@
     <t>412239</t>
   </si>
   <si>
-    <t>Peter Welch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Welch. Thank you very much, Mr. Chairman.    And this issue of embassy security obviously is very important. I appreciate the work you're doing.    Mr. Chairman, I appreciate the work you're doing, and I enjoyed my trip to Libya with you to inspect an embassy.    You've got a tough job, and I think we appreciate that. I've got a couple of areas of questions. One is taking up on what Mr. Cummings started on about the 100-foot setback. The State Department has several additional physical security standards for diplomatic facilities, and they include the anticlimb perimeters, hardened building exteriors, and safe spaces for taking refuge in the event of the attack.    Do all the new embassies have these type of features? And I'll--go ahead, sir.</t>
   </si>
   <si>
@@ -754,9 +727,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    Mr. Linick, let me just begin with you. Did your office, the Office of the Inspector General, make recommendations to OBO to not begin the construction until they were sure that the building would survive a blast?</t>
   </si>
   <si>
@@ -862,9 +832,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. Thank you very much, Mr. Chairman.    I must say, Mr. Starr, it must be difficult today to be a diplomat abroad in light of what we're seeing. After the Paris attacks, I wonder if there are specific changes that the State Department feels are necessary in light of those attacks.</t>
   </si>
   <si>
@@ -892,9 +859,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    Thank you all for being here.    Mr. Starr, correct me if I'm wrong, but I believe this is the third time you've been here before this committee this year. Is that correct, yes or no?</t>
   </si>
   <si>
@@ -940,9 +904,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you all for being here. It's good to see you back, a few of you.    Mr. Starr, I think part of the frustration is that you answer with such specificity and inclusiveness that it's hard for any of us to take some of your testimony seriously that everything is okay. Now, I've talked with your colleague a number of times, have a good relationship, I believe, with her in terms of trying to find areas to address the embassy and diplomatic needs that we have.    So I guess the question I have for you is, I heard Mr. Linick talking to Mr. Hice about the need for clarity. So would you say that some of the ``not following the rules'' is because of ambiguity in the law?</t>
   </si>
   <si>
@@ -1066,9 +1027,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman. And, again, thanks for addressing this important issue.    We all realize it doesn't matter which embassy a threat may get. The symbology of just getting one. We saw the destruction of the Beirut embassy that resulted in many of the security standards that we now live by. We saw the loss of the Tanzania and Kenyan embassies that furthered under Secretary of State then Colin Powell to make standard embassy design so that we could have something that would economize the dollars that we have and also provide security in all of the foreign missions that we possess.    And therein lies the problem. We've seen in recent years a deviation, some for needs of topography or needs of the country or needs of the mission, but some just for purely different, political reasons.    And I guess, you know, Director Muniz, you know, you bring not only integrity and a great work ethic and reputation that I think both sides respect, and you've certainly earned that, but my question, and we see it here even with the London embassy, what do you think would be the most important, spending hundreds of millions of dollars beyond the scope of what's needed in nonstandard designs with renewable energy projects and initiatives or building proven secure embassies that will maybe alter for esthetics or for culture in our most vulnerable missions overseas? Which is more important dealing with the terror threats that we face globally today?</t>
   </si>
   <si>
@@ -1244,9 +1202,6 @@
   </si>
   <si>
     <t>412608</t>
-  </si>
-  <si>
-    <t>Gary J. Palmer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman.    Ms. Muniz, Mr. Starr, why does the Overseas Buildings Operations and the Bureau of Diplomatic Security rely on unpublished draft memorandum rather than Federal law and the Foreign Affairs Manual to determine when to begin construction on facilities?</t>
@@ -1891,11 +1846,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1915,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1943,11 +1894,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1969,11 +1918,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1993,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2021,11 +1966,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2045,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2073,11 +2014,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2097,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2125,11 +2062,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2149,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2177,11 +2110,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2201,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2229,11 +2158,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2253,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2281,11 +2206,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2305,13 +2228,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2333,11 +2254,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2359,11 +2278,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2385,11 +2302,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2409,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2437,11 +2350,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2461,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2489,11 +2398,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2513,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2541,11 +2446,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2565,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2593,11 +2494,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2617,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2645,11 +2542,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2669,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2697,11 +2590,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2721,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2749,11 +2638,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2773,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2801,11 +2686,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2825,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2853,11 +2734,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2877,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2905,11 +2782,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2929,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2957,11 +2830,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2981,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3009,11 +2878,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3033,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3061,11 +2926,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3085,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3113,11 +2974,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3137,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3165,11 +3022,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3189,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3217,11 +3070,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3241,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3269,11 +3118,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3293,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3321,11 +3166,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3345,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3373,11 +3214,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3397,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3425,11 +3262,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3449,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3477,11 +3310,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3501,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3527,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3553,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3579,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3605,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3631,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3657,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3683,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>19</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3709,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3735,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3761,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3787,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3813,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3839,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3865,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3891,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3917,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3943,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3969,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3995,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4021,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4047,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4073,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4099,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4125,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4151,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4177,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4203,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4229,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4255,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4281,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4307,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4333,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4359,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4385,13 +4148,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4411,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4437,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4463,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4489,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4515,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4541,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4567,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4593,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4619,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4645,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4671,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4697,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4723,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4749,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4775,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4801,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4827,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4853,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4879,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4905,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4933,11 +4654,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4957,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>132</v>
-      </c>
-      <c r="G120" t="s">
-        <v>133</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4983,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5009,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>132</v>
-      </c>
-      <c r="G122" t="s">
-        <v>133</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5035,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5061,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
+        <v>127</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
         <v>132</v>
-      </c>
-      <c r="G124" t="s">
-        <v>133</v>
-      </c>
-      <c r="H124" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5087,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5113,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>132</v>
-      </c>
-      <c r="G126" t="s">
-        <v>133</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5139,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5165,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>132</v>
-      </c>
-      <c r="G128" t="s">
-        <v>133</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5191,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5217,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>132</v>
-      </c>
-      <c r="G130" t="s">
-        <v>133</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5243,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5269,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>132</v>
-      </c>
-      <c r="G132" t="s">
-        <v>133</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5295,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5321,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>132</v>
-      </c>
-      <c r="G134" t="s">
-        <v>133</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5347,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5373,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>132</v>
-      </c>
-      <c r="G136" t="s">
-        <v>133</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5399,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5425,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>132</v>
-      </c>
-      <c r="G138" t="s">
-        <v>133</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5451,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5479,11 +5158,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5503,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5531,11 +5206,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5555,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5583,11 +5254,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5607,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5635,11 +5302,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5659,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5687,11 +5350,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5711,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5739,11 +5398,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5763,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5791,11 +5446,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5815,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5841,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>19</v>
-      </c>
-      <c r="G154" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5867,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>132</v>
-      </c>
-      <c r="G155" t="s">
-        <v>133</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5895,11 +5542,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5919,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5947,11 +5590,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5971,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5999,11 +5638,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6023,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6051,11 +5686,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6075,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6103,11 +5734,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6127,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6155,11 +5782,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6179,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>180</v>
-      </c>
-      <c r="G167" t="s">
-        <v>181</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6205,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6231,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>180</v>
-      </c>
-      <c r="G169" t="s">
-        <v>181</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6257,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6283,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>180</v>
-      </c>
-      <c r="G171" t="s">
-        <v>181</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6309,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>19</v>
-      </c>
-      <c r="G172" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6335,13 +5948,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
+        <v>174</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
         <v>180</v>
-      </c>
-      <c r="G173" t="s">
-        <v>181</v>
-      </c>
-      <c r="H173" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6361,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>19</v>
-      </c>
-      <c r="G174" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6387,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>180</v>
-      </c>
-      <c r="G175" t="s">
-        <v>181</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6413,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6439,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>180</v>
-      </c>
-      <c r="G177" t="s">
-        <v>181</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6465,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6491,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>180</v>
-      </c>
-      <c r="G179" t="s">
-        <v>181</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6517,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>19</v>
-      </c>
-      <c r="G180" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6543,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>180</v>
-      </c>
-      <c r="G181" t="s">
-        <v>181</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6571,11 +6166,9 @@
       <c r="F182" t="s">
         <v>11</v>
       </c>
-      <c r="G182" t="s">
-        <v>12</v>
-      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6595,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>197</v>
-      </c>
-      <c r="G183" t="s">
-        <v>198</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6621,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>19</v>
-      </c>
-      <c r="G184" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6647,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>197</v>
-      </c>
-      <c r="G185" t="s">
-        <v>198</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6673,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6699,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>197</v>
-      </c>
-      <c r="G187" t="s">
-        <v>198</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6725,13 +6308,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>19</v>
-      </c>
-      <c r="G188" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6751,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
+        <v>190</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
         <v>197</v>
-      </c>
-      <c r="G189" t="s">
-        <v>198</v>
-      </c>
-      <c r="H189" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6777,13 +6356,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>19</v>
-      </c>
-      <c r="G190" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6803,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>197</v>
-      </c>
-      <c r="G191" t="s">
-        <v>198</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6829,13 +6404,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>19</v>
-      </c>
-      <c r="G192" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6855,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>197</v>
-      </c>
-      <c r="G193" t="s">
-        <v>198</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6881,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>19</v>
-      </c>
-      <c r="G194" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6907,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>197</v>
-      </c>
-      <c r="G195" t="s">
-        <v>198</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6933,13 +6500,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>19</v>
-      </c>
-      <c r="G196" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6959,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>197</v>
-      </c>
-      <c r="G197" t="s">
-        <v>198</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6985,13 +6548,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>19</v>
-      </c>
-      <c r="G198" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7011,13 +6572,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>197</v>
-      </c>
-      <c r="G199" t="s">
-        <v>198</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7039,11 +6598,9 @@
       <c r="F200" t="s">
         <v>11</v>
       </c>
-      <c r="G200" t="s">
-        <v>12</v>
-      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7063,13 +6620,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>197</v>
-      </c>
-      <c r="G201" t="s">
-        <v>198</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7091,11 +6646,9 @@
       <c r="F202" t="s">
         <v>11</v>
       </c>
-      <c r="G202" t="s">
-        <v>12</v>
-      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7115,13 +6668,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>19</v>
-      </c>
-      <c r="G203" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7143,11 +6694,9 @@
       <c r="F204" t="s">
         <v>11</v>
       </c>
-      <c r="G204" t="s">
-        <v>12</v>
-      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7167,13 +6716,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>19</v>
-      </c>
-      <c r="G205" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7195,11 +6742,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7219,13 +6764,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>19</v>
-      </c>
-      <c r="G207" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7247,11 +6790,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7271,13 +6812,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>19</v>
-      </c>
-      <c r="G209" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7299,11 +6838,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7323,13 +6860,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>19</v>
-      </c>
-      <c r="G211" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7351,11 +6886,9 @@
       <c r="F212" t="s">
         <v>11</v>
       </c>
-      <c r="G212" t="s">
-        <v>12</v>
-      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7375,13 +6908,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>229</v>
-      </c>
-      <c r="G213" t="s">
-        <v>230</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7401,13 +6932,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>19</v>
-      </c>
-      <c r="G214" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7427,13 +6956,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>229</v>
-      </c>
-      <c r="G215" t="s">
-        <v>230</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7453,13 +6980,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>19</v>
-      </c>
-      <c r="G216" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7479,13 +7004,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>229</v>
-      </c>
-      <c r="G217" t="s">
-        <v>230</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7505,13 +7028,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>19</v>
-      </c>
-      <c r="G218" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7531,13 +7052,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>229</v>
-      </c>
-      <c r="G219" t="s">
-        <v>230</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7557,13 +7076,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>19</v>
-      </c>
-      <c r="G220" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7583,13 +7100,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>229</v>
-      </c>
-      <c r="G221" t="s">
+        <v>221</v>
+      </c>
+      <c r="G221" t="s"/>
+      <c r="H221" t="s">
         <v>230</v>
-      </c>
-      <c r="H221" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7609,13 +7124,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>19</v>
-      </c>
-      <c r="G222" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7635,13 +7148,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>229</v>
-      </c>
-      <c r="G223" t="s">
-        <v>230</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7661,13 +7172,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>19</v>
-      </c>
-      <c r="G224" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7687,13 +7196,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>229</v>
-      </c>
-      <c r="G225" t="s">
-        <v>230</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7715,11 +7222,9 @@
       <c r="F226" t="s">
         <v>11</v>
       </c>
-      <c r="G226" t="s">
-        <v>12</v>
-      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7739,13 +7244,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>245</v>
-      </c>
-      <c r="G227" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7765,13 +7268,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>19</v>
-      </c>
-      <c r="G228" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7791,13 +7292,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>245</v>
-      </c>
-      <c r="G229" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7817,13 +7316,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>19</v>
-      </c>
-      <c r="G230" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7843,13 +7340,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>245</v>
-      </c>
-      <c r="G231" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7869,13 +7364,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>19</v>
-      </c>
-      <c r="G232" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7895,13 +7388,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>245</v>
-      </c>
-      <c r="G233" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7921,13 +7412,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>19</v>
-      </c>
-      <c r="G234" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7947,13 +7436,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
+        <v>236</v>
+      </c>
+      <c r="G235" t="s"/>
+      <c r="H235" t="s">
         <v>245</v>
-      </c>
-      <c r="G235" t="s">
-        <v>246</v>
-      </c>
-      <c r="H235" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7973,13 +7460,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>19</v>
-      </c>
-      <c r="G236" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7999,13 +7484,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>245</v>
-      </c>
-      <c r="G237" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8025,13 +7508,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>19</v>
-      </c>
-      <c r="G238" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8051,13 +7532,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>245</v>
-      </c>
-      <c r="G239" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8077,13 +7556,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>19</v>
-      </c>
-      <c r="G240" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8103,13 +7580,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>245</v>
-      </c>
-      <c r="G241" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8129,13 +7604,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>19</v>
-      </c>
-      <c r="G242" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8155,13 +7628,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>245</v>
-      </c>
-      <c r="G243" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8181,13 +7652,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>19</v>
-      </c>
-      <c r="G244" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8207,13 +7676,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>245</v>
-      </c>
-      <c r="G245" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8233,13 +7700,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>19</v>
-      </c>
-      <c r="G246" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8259,13 +7724,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>245</v>
-      </c>
-      <c r="G247" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8285,13 +7748,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>19</v>
-      </c>
-      <c r="G248" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8311,13 +7772,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>245</v>
-      </c>
-      <c r="G249" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8337,13 +7796,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>19</v>
-      </c>
-      <c r="G250" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8363,13 +7820,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>245</v>
-      </c>
-      <c r="G251" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8389,13 +7844,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>19</v>
-      </c>
-      <c r="G252" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8415,13 +7868,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>245</v>
-      </c>
-      <c r="G253" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8441,13 +7892,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>19</v>
-      </c>
-      <c r="G254" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8467,13 +7916,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>245</v>
-      </c>
-      <c r="G255" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8493,13 +7940,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>19</v>
-      </c>
-      <c r="G256" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8519,13 +7964,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>245</v>
-      </c>
-      <c r="G257" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8545,13 +7988,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>19</v>
-      </c>
-      <c r="G258" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8571,13 +8012,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>245</v>
-      </c>
-      <c r="G259" t="s">
-        <v>246</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8599,11 +8038,9 @@
       <c r="F260" t="s">
         <v>11</v>
       </c>
-      <c r="G260" t="s">
-        <v>12</v>
-      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8623,13 +8060,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>281</v>
-      </c>
-      <c r="G261" t="s">
-        <v>282</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8649,13 +8084,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>19</v>
-      </c>
-      <c r="G262" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8675,13 +8108,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>281</v>
-      </c>
-      <c r="G263" t="s">
-        <v>282</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8701,13 +8132,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>19</v>
-      </c>
-      <c r="G264" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8727,13 +8156,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>281</v>
-      </c>
-      <c r="G265" t="s">
-        <v>282</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8753,13 +8180,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>19</v>
-      </c>
-      <c r="G266" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8779,13 +8204,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>281</v>
-      </c>
-      <c r="G267" t="s">
-        <v>282</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8807,11 +8230,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>12</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8831,13 +8252,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>291</v>
-      </c>
-      <c r="G269" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8857,13 +8276,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>19</v>
-      </c>
-      <c r="G270" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8883,13 +8300,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>291</v>
-      </c>
-      <c r="G271" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8909,13 +8324,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>19</v>
-      </c>
-      <c r="G272" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8935,13 +8348,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>291</v>
-      </c>
-      <c r="G273" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8961,13 +8372,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>19</v>
-      </c>
-      <c r="G274" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8987,13 +8396,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>291</v>
-      </c>
-      <c r="G275" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9013,13 +8420,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>19</v>
-      </c>
-      <c r="G276" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9039,13 +8444,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>291</v>
-      </c>
-      <c r="G277" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9065,13 +8468,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>19</v>
-      </c>
-      <c r="G278" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9091,13 +8492,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>291</v>
-      </c>
-      <c r="G279" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9119,11 +8518,9 @@
       <c r="F280" t="s">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>12</v>
-      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9143,13 +8540,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>19</v>
-      </c>
-      <c r="G281" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9171,11 +8566,9 @@
       <c r="F282" t="s">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9195,13 +8588,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>291</v>
-      </c>
-      <c r="G283" t="s">
-        <v>292</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9223,11 +8614,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9247,13 +8636,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>307</v>
-      </c>
-      <c r="G285" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9273,13 +8660,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>19</v>
-      </c>
-      <c r="G286" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9299,13 +8684,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>307</v>
-      </c>
-      <c r="G287" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9325,13 +8708,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>19</v>
-      </c>
-      <c r="G288" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9351,13 +8732,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>307</v>
-      </c>
-      <c r="G289" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9377,13 +8756,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>19</v>
-      </c>
-      <c r="G290" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9403,13 +8780,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>307</v>
-      </c>
-      <c r="G291" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9429,13 +8804,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>19</v>
-      </c>
-      <c r="G292" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9455,13 +8828,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>307</v>
-      </c>
-      <c r="G293" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9481,13 +8852,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>19</v>
-      </c>
-      <c r="G294" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9507,13 +8876,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>307</v>
-      </c>
-      <c r="G295" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9533,13 +8900,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>19</v>
-      </c>
-      <c r="G296" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9559,13 +8924,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>307</v>
-      </c>
-      <c r="G297" t="s">
+        <v>295</v>
+      </c>
+      <c r="G297" t="s"/>
+      <c r="H297" t="s">
         <v>308</v>
-      </c>
-      <c r="H297" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9585,13 +8948,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>19</v>
-      </c>
-      <c r="G298" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9611,13 +8972,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>307</v>
-      </c>
-      <c r="G299" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9637,13 +8996,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>19</v>
-      </c>
-      <c r="G300" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9663,13 +9020,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>307</v>
-      </c>
-      <c r="G301" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9689,13 +9044,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>19</v>
-      </c>
-      <c r="G302" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9715,13 +9068,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>307</v>
-      </c>
-      <c r="G303" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9741,13 +9092,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>19</v>
-      </c>
-      <c r="G304" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9767,13 +9116,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>19</v>
-      </c>
-      <c r="G305" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9793,13 +9140,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>307</v>
-      </c>
-      <c r="G306" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9819,13 +9164,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>19</v>
-      </c>
-      <c r="G307" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9845,13 +9188,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>307</v>
-      </c>
-      <c r="G308" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9871,13 +9212,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>19</v>
-      </c>
-      <c r="G309" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9897,13 +9236,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>307</v>
-      </c>
-      <c r="G310" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9923,13 +9260,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>19</v>
-      </c>
-      <c r="G311" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9949,13 +9284,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>307</v>
-      </c>
-      <c r="G312" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9975,13 +9308,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>19</v>
-      </c>
-      <c r="G313" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10001,13 +9332,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>307</v>
-      </c>
-      <c r="G314" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10027,13 +9356,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>19</v>
-      </c>
-      <c r="G315" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10053,13 +9380,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>307</v>
-      </c>
-      <c r="G316" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10079,13 +9404,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>19</v>
-      </c>
-      <c r="G317" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10105,13 +9428,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>307</v>
-      </c>
-      <c r="G318" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10131,13 +9452,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>19</v>
-      </c>
-      <c r="G319" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10157,13 +9476,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>307</v>
-      </c>
-      <c r="G320" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10183,13 +9500,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>19</v>
-      </c>
-      <c r="G321" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10209,13 +9524,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>307</v>
-      </c>
-      <c r="G322" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10235,13 +9548,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>19</v>
-      </c>
-      <c r="G323" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10261,13 +9572,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>307</v>
-      </c>
-      <c r="G324" t="s">
-        <v>308</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10289,11 +9598,9 @@
       <c r="F325" t="s">
         <v>11</v>
       </c>
-      <c r="G325" t="s">
-        <v>12</v>
-      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10313,13 +9620,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>349</v>
-      </c>
-      <c r="G326" t="s">
-        <v>350</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10339,13 +9644,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>19</v>
-      </c>
-      <c r="G327" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10365,13 +9668,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>349</v>
-      </c>
-      <c r="G328" t="s">
-        <v>350</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10391,13 +9692,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>19</v>
-      </c>
-      <c r="G329" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10417,13 +9716,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>349</v>
-      </c>
-      <c r="G330" t="s">
-        <v>350</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10443,13 +9740,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>19</v>
-      </c>
-      <c r="G331" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10469,13 +9764,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>349</v>
-      </c>
-      <c r="G332" t="s">
-        <v>350</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10495,13 +9788,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>19</v>
-      </c>
-      <c r="G333" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10521,13 +9812,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>349</v>
-      </c>
-      <c r="G334" t="s">
-        <v>350</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10547,13 +9836,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>19</v>
-      </c>
-      <c r="G335" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10573,13 +9860,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>349</v>
-      </c>
-      <c r="G336" t="s">
-        <v>350</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10599,13 +9884,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>19</v>
-      </c>
-      <c r="G337" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10625,13 +9908,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
+        <v>336</v>
+      </c>
+      <c r="G338" t="s"/>
+      <c r="H338" t="s">
         <v>349</v>
-      </c>
-      <c r="G338" t="s">
-        <v>350</v>
-      </c>
-      <c r="H338" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10651,13 +9932,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>19</v>
-      </c>
-      <c r="G339" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10677,13 +9956,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>349</v>
-      </c>
-      <c r="G340" t="s">
-        <v>350</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10705,11 +9982,9 @@
       <c r="F341" t="s">
         <v>11</v>
       </c>
-      <c r="G341" t="s">
-        <v>12</v>
-      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10729,13 +10004,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>19</v>
-      </c>
-      <c r="G342" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10757,11 +10030,9 @@
       <c r="F343" t="s">
         <v>11</v>
       </c>
-      <c r="G343" t="s">
-        <v>12</v>
-      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10781,13 +10052,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>19</v>
-      </c>
-      <c r="G344" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10809,11 +10078,9 @@
       <c r="F345" t="s">
         <v>11</v>
       </c>
-      <c r="G345" t="s">
-        <v>12</v>
-      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10833,13 +10100,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>19</v>
-      </c>
-      <c r="G346" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10861,11 +10126,9 @@
       <c r="F347" t="s">
         <v>11</v>
       </c>
-      <c r="G347" t="s">
-        <v>12</v>
-      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10885,13 +10148,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>19</v>
-      </c>
-      <c r="G348" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10913,11 +10174,9 @@
       <c r="F349" t="s">
         <v>11</v>
       </c>
-      <c r="G349" t="s">
-        <v>12</v>
-      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10937,13 +10196,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>19</v>
-      </c>
-      <c r="G350" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10965,11 +10222,9 @@
       <c r="F351" t="s">
         <v>11</v>
       </c>
-      <c r="G351" t="s">
-        <v>12</v>
-      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10989,13 +10244,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>19</v>
-      </c>
-      <c r="G352" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11017,11 +10270,9 @@
       <c r="F353" t="s">
         <v>11</v>
       </c>
-      <c r="G353" t="s">
-        <v>12</v>
-      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11041,13 +10292,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>19</v>
-      </c>
-      <c r="G354" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11069,11 +10318,9 @@
       <c r="F355" t="s">
         <v>11</v>
       </c>
-      <c r="G355" t="s">
-        <v>12</v>
-      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11093,13 +10340,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>19</v>
-      </c>
-      <c r="G356" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11121,11 +10366,9 @@
       <c r="F357" t="s">
         <v>11</v>
       </c>
-      <c r="G357" t="s">
-        <v>12</v>
-      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11145,13 +10388,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>19</v>
-      </c>
-      <c r="G358" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11173,11 +10414,9 @@
       <c r="F359" t="s">
         <v>11</v>
       </c>
-      <c r="G359" t="s">
-        <v>12</v>
-      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11197,13 +10436,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>19</v>
-      </c>
-      <c r="G360" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11225,11 +10462,9 @@
       <c r="F361" t="s">
         <v>11</v>
       </c>
-      <c r="G361" t="s">
-        <v>12</v>
-      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11249,13 +10484,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>19</v>
-      </c>
-      <c r="G362" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11277,11 +10510,9 @@
       <c r="F363" t="s">
         <v>11</v>
       </c>
-      <c r="G363" t="s">
-        <v>12</v>
-      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11301,13 +10532,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>19</v>
-      </c>
-      <c r="G364" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11329,11 +10558,9 @@
       <c r="F365" t="s">
         <v>11</v>
       </c>
-      <c r="G365" t="s">
-        <v>12</v>
-      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11353,13 +10580,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>19</v>
-      </c>
-      <c r="G366" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11381,11 +10606,9 @@
       <c r="F367" t="s">
         <v>11</v>
       </c>
-      <c r="G367" t="s">
-        <v>12</v>
-      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11405,13 +10628,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>19</v>
-      </c>
-      <c r="G368" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11433,11 +10654,9 @@
       <c r="F369" t="s">
         <v>11</v>
       </c>
-      <c r="G369" t="s">
-        <v>12</v>
-      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11457,13 +10676,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>19</v>
-      </c>
-      <c r="G370" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11485,11 +10702,9 @@
       <c r="F371" t="s">
         <v>11</v>
       </c>
-      <c r="G371" t="s">
-        <v>12</v>
-      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11509,13 +10724,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>19</v>
-      </c>
-      <c r="G372" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11535,13 +10748,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>349</v>
-      </c>
-      <c r="G373" t="s">
-        <v>350</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11561,13 +10772,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>19</v>
-      </c>
-      <c r="G374" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11587,13 +10796,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>349</v>
-      </c>
-      <c r="G375" t="s">
-        <v>350</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11615,11 +10822,9 @@
       <c r="F376" t="s">
         <v>11</v>
       </c>
-      <c r="G376" t="s">
-        <v>12</v>
-      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11639,13 +10844,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>19</v>
-      </c>
-      <c r="G377" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11667,11 +10870,9 @@
       <c r="F378" t="s">
         <v>11</v>
       </c>
-      <c r="G378" t="s">
-        <v>12</v>
-      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11691,13 +10892,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>19</v>
-      </c>
-      <c r="G379" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11719,11 +10918,9 @@
       <c r="F380" t="s">
         <v>11</v>
       </c>
-      <c r="G380" t="s">
-        <v>12</v>
-      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11745,11 +10942,9 @@
       <c r="F381" t="s">
         <v>11</v>
       </c>
-      <c r="G381" t="s">
-        <v>12</v>
-      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11769,13 +10964,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>19</v>
-      </c>
-      <c r="G382" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11797,11 +10990,9 @@
       <c r="F383" t="s">
         <v>11</v>
       </c>
-      <c r="G383" t="s">
-        <v>12</v>
-      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11821,13 +11012,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>19</v>
-      </c>
-      <c r="G384" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11849,11 +11038,9 @@
       <c r="F385" t="s">
         <v>11</v>
       </c>
-      <c r="G385" t="s">
-        <v>12</v>
-      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11873,13 +11060,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>409</v>
-      </c>
-      <c r="G386" t="s">
-        <v>410</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11899,13 +11084,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>19</v>
-      </c>
-      <c r="G387" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11925,13 +11108,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>409</v>
-      </c>
-      <c r="G388" t="s">
-        <v>410</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11951,13 +11132,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>19</v>
-      </c>
-      <c r="G389" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11977,13 +11156,11 @@
         <v>10</v>
       </c>
       <c r="F390" t="s">
-        <v>19</v>
-      </c>
-      <c r="G390" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12003,13 +11180,11 @@
         <v>10</v>
       </c>
       <c r="F391" t="s">
-        <v>409</v>
-      </c>
-      <c r="G391" t="s">
-        <v>410</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="G391" t="s"/>
       <c r="H391" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12029,13 +11204,11 @@
         <v>10</v>
       </c>
       <c r="F392" t="s">
-        <v>19</v>
-      </c>
-      <c r="G392" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G392" t="s"/>
       <c r="H392" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12055,13 +11228,11 @@
         <v>10</v>
       </c>
       <c r="F393" t="s">
-        <v>409</v>
-      </c>
-      <c r="G393" t="s">
-        <v>410</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="G393" t="s"/>
       <c r="H393" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12081,13 +11252,11 @@
         <v>10</v>
       </c>
       <c r="F394" t="s">
-        <v>19</v>
-      </c>
-      <c r="G394" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G394" t="s"/>
       <c r="H394" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12107,13 +11276,11 @@
         <v>10</v>
       </c>
       <c r="F395" t="s">
-        <v>409</v>
-      </c>
-      <c r="G395" t="s">
-        <v>410</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="G395" t="s"/>
       <c r="H395" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12133,13 +11300,11 @@
         <v>10</v>
       </c>
       <c r="F396" t="s">
-        <v>19</v>
-      </c>
-      <c r="G396" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G396" t="s"/>
       <c r="H396" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12159,13 +11324,11 @@
         <v>10</v>
       </c>
       <c r="F397" t="s">
-        <v>409</v>
-      </c>
-      <c r="G397" t="s">
-        <v>410</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="G397" t="s"/>
       <c r="H397" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12185,13 +11348,11 @@
         <v>10</v>
       </c>
       <c r="F398" t="s">
-        <v>19</v>
-      </c>
-      <c r="G398" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G398" t="s"/>
       <c r="H398" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12211,13 +11372,11 @@
         <v>10</v>
       </c>
       <c r="F399" t="s">
+        <v>395</v>
+      </c>
+      <c r="G399" t="s"/>
+      <c r="H399" t="s">
         <v>409</v>
-      </c>
-      <c r="G399" t="s">
-        <v>410</v>
-      </c>
-      <c r="H399" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12237,13 +11396,11 @@
         <v>10</v>
       </c>
       <c r="F400" t="s">
-        <v>19</v>
-      </c>
-      <c r="G400" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G400" t="s"/>
       <c r="H400" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12263,13 +11420,11 @@
         <v>10</v>
       </c>
       <c r="F401" t="s">
-        <v>409</v>
-      </c>
-      <c r="G401" t="s">
-        <v>410</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="G401" t="s"/>
       <c r="H401" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12291,11 +11446,9 @@
       <c r="F402" t="s">
         <v>11</v>
       </c>
-      <c r="G402" t="s">
-        <v>12</v>
-      </c>
+      <c r="G402" t="s"/>
       <c r="H402" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12315,13 +11468,11 @@
         <v>10</v>
       </c>
       <c r="F403" t="s">
-        <v>19</v>
-      </c>
-      <c r="G403" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G403" t="s"/>
       <c r="H403" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12343,11 +11494,9 @@
       <c r="F404" t="s">
         <v>11</v>
       </c>
-      <c r="G404" t="s">
-        <v>12</v>
-      </c>
+      <c r="G404" t="s"/>
       <c r="H404" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12367,13 +11516,11 @@
         <v>10</v>
       </c>
       <c r="F405" t="s">
-        <v>19</v>
-      </c>
-      <c r="G405" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G405" t="s"/>
       <c r="H405" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12395,11 +11542,9 @@
       <c r="F406" t="s">
         <v>11</v>
       </c>
-      <c r="G406" t="s">
-        <v>12</v>
-      </c>
+      <c r="G406" t="s"/>
       <c r="H406" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12419,13 +11564,11 @@
         <v>10</v>
       </c>
       <c r="F407" t="s">
-        <v>19</v>
-      </c>
-      <c r="G407" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G407" t="s"/>
       <c r="H407" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12447,11 +11590,9 @@
       <c r="F408" t="s">
         <v>11</v>
       </c>
-      <c r="G408" t="s">
-        <v>12</v>
-      </c>
+      <c r="G408" t="s"/>
       <c r="H408" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12471,13 +11612,11 @@
         <v>10</v>
       </c>
       <c r="F409" t="s">
-        <v>14</v>
-      </c>
-      <c r="G409" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G409" t="s"/>
       <c r="H409" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12499,11 +11638,9 @@
       <c r="F410" t="s">
         <v>11</v>
       </c>
-      <c r="G410" t="s">
-        <v>12</v>
-      </c>
+      <c r="G410" t="s"/>
       <c r="H410" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12523,13 +11660,11 @@
         <v>10</v>
       </c>
       <c r="F411" t="s">
-        <v>14</v>
-      </c>
-      <c r="G411" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G411" t="s"/>
       <c r="H411" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12551,11 +11686,9 @@
       <c r="F412" t="s">
         <v>11</v>
       </c>
-      <c r="G412" t="s">
-        <v>12</v>
-      </c>
+      <c r="G412" t="s"/>
       <c r="H412" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12575,13 +11708,11 @@
         <v>10</v>
       </c>
       <c r="F413" t="s">
-        <v>14</v>
-      </c>
-      <c r="G413" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G413" t="s"/>
       <c r="H413" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12601,13 +11732,11 @@
         <v>10</v>
       </c>
       <c r="F414" t="s">
-        <v>19</v>
-      </c>
-      <c r="G414" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G414" t="s"/>
       <c r="H414" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12627,13 +11756,11 @@
         <v>10</v>
       </c>
       <c r="F415" t="s">
-        <v>14</v>
-      </c>
-      <c r="G415" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G415" t="s"/>
       <c r="H415" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12655,11 +11782,9 @@
       <c r="F416" t="s">
         <v>11</v>
       </c>
-      <c r="G416" t="s">
-        <v>12</v>
-      </c>
+      <c r="G416" t="s"/>
       <c r="H416" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12679,13 +11804,11 @@
         <v>10</v>
       </c>
       <c r="F417" t="s">
-        <v>19</v>
-      </c>
-      <c r="G417" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G417" t="s"/>
       <c r="H417" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12707,11 +11830,9 @@
       <c r="F418" t="s">
         <v>11</v>
       </c>
-      <c r="G418" t="s">
-        <v>12</v>
-      </c>
+      <c r="G418" t="s"/>
       <c r="H418" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12731,13 +11852,11 @@
         <v>10</v>
       </c>
       <c r="F419" t="s">
-        <v>19</v>
-      </c>
-      <c r="G419" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G419" t="s"/>
       <c r="H419" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -12757,13 +11876,11 @@
         <v>10</v>
       </c>
       <c r="F420" t="s">
-        <v>19</v>
-      </c>
-      <c r="G420" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G420" t="s"/>
       <c r="H420" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -12785,11 +11902,9 @@
       <c r="F421" t="s">
         <v>11</v>
       </c>
-      <c r="G421" t="s">
-        <v>12</v>
-      </c>
+      <c r="G421" t="s"/>
       <c r="H421" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12809,13 +11924,11 @@
         <v>10</v>
       </c>
       <c r="F422" t="s">
-        <v>19</v>
-      </c>
-      <c r="G422" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G422" t="s"/>
       <c r="H422" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12837,11 +11950,9 @@
       <c r="F423" t="s">
         <v>11</v>
       </c>
-      <c r="G423" t="s">
-        <v>12</v>
-      </c>
+      <c r="G423" t="s"/>
       <c r="H423" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -12861,13 +11972,11 @@
         <v>10</v>
       </c>
       <c r="F424" t="s">
-        <v>19</v>
-      </c>
-      <c r="G424" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G424" t="s"/>
       <c r="H424" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -12889,11 +11998,9 @@
       <c r="F425" t="s">
         <v>11</v>
       </c>
-      <c r="G425" t="s">
-        <v>12</v>
-      </c>
+      <c r="G425" t="s"/>
       <c r="H425" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -12913,13 +12020,11 @@
         <v>10</v>
       </c>
       <c r="F426" t="s">
-        <v>19</v>
-      </c>
-      <c r="G426" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G426" t="s"/>
       <c r="H426" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12941,11 +12046,9 @@
       <c r="F427" t="s">
         <v>11</v>
       </c>
-      <c r="G427" t="s">
-        <v>12</v>
-      </c>
+      <c r="G427" t="s"/>
       <c r="H427" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12965,13 +12068,11 @@
         <v>10</v>
       </c>
       <c r="F428" t="s">
-        <v>19</v>
-      </c>
-      <c r="G428" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G428" t="s"/>
       <c r="H428" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12993,11 +12094,9 @@
       <c r="F429" t="s">
         <v>11</v>
       </c>
-      <c r="G429" t="s">
-        <v>12</v>
-      </c>
+      <c r="G429" t="s"/>
       <c r="H429" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13017,13 +12116,11 @@
         <v>10</v>
       </c>
       <c r="F430" t="s">
-        <v>19</v>
-      </c>
-      <c r="G430" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G430" t="s"/>
       <c r="H430" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13045,11 +12142,9 @@
       <c r="F431" t="s">
         <v>11</v>
       </c>
-      <c r="G431" t="s">
-        <v>12</v>
-      </c>
+      <c r="G431" t="s"/>
       <c r="H431" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13069,13 +12164,11 @@
         <v>10</v>
       </c>
       <c r="F432" t="s">
-        <v>19</v>
-      </c>
-      <c r="G432" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G432" t="s"/>
       <c r="H432" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13097,11 +12190,9 @@
       <c r="F433" t="s">
         <v>11</v>
       </c>
-      <c r="G433" t="s">
-        <v>12</v>
-      </c>
+      <c r="G433" t="s"/>
       <c r="H433" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13121,13 +12212,11 @@
         <v>10</v>
       </c>
       <c r="F434" t="s">
-        <v>19</v>
-      </c>
-      <c r="G434" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G434" t="s"/>
       <c r="H434" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13149,11 +12238,9 @@
       <c r="F435" t="s">
         <v>11</v>
       </c>
-      <c r="G435" t="s">
-        <v>12</v>
-      </c>
+      <c r="G435" t="s"/>
       <c r="H435" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13173,13 +12260,11 @@
         <v>10</v>
       </c>
       <c r="F436" t="s">
-        <v>19</v>
-      </c>
-      <c r="G436" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G436" t="s"/>
       <c r="H436" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13201,11 +12286,9 @@
       <c r="F437" t="s">
         <v>11</v>
       </c>
-      <c r="G437" t="s">
-        <v>12</v>
-      </c>
+      <c r="G437" t="s"/>
       <c r="H437" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13225,13 +12308,11 @@
         <v>10</v>
       </c>
       <c r="F438" t="s">
-        <v>19</v>
-      </c>
-      <c r="G438" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G438" t="s"/>
       <c r="H438" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13253,11 +12334,9 @@
       <c r="F439" t="s">
         <v>11</v>
       </c>
-      <c r="G439" t="s">
-        <v>12</v>
-      </c>
+      <c r="G439" t="s"/>
       <c r="H439" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13277,13 +12356,11 @@
         <v>10</v>
       </c>
       <c r="F440" t="s">
-        <v>19</v>
-      </c>
-      <c r="G440" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G440" t="s"/>
       <c r="H440" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13305,11 +12382,9 @@
       <c r="F441" t="s">
         <v>11</v>
       </c>
-      <c r="G441" t="s">
-        <v>12</v>
-      </c>
+      <c r="G441" t="s"/>
       <c r="H441" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13329,13 +12404,11 @@
         <v>10</v>
       </c>
       <c r="F442" t="s">
-        <v>19</v>
-      </c>
-      <c r="G442" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G442" t="s"/>
       <c r="H442" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13357,11 +12430,9 @@
       <c r="F443" t="s">
         <v>11</v>
       </c>
-      <c r="G443" t="s">
-        <v>12</v>
-      </c>
+      <c r="G443" t="s"/>
       <c r="H443" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13381,13 +12452,11 @@
         <v>10</v>
       </c>
       <c r="F444" t="s">
-        <v>19</v>
-      </c>
-      <c r="G444" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G444" t="s"/>
       <c r="H444" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13409,11 +12478,9 @@
       <c r="F445" t="s">
         <v>11</v>
       </c>
-      <c r="G445" t="s">
-        <v>12</v>
-      </c>
+      <c r="G445" t="s"/>
       <c r="H445" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13433,13 +12500,11 @@
         <v>10</v>
       </c>
       <c r="F446" t="s">
-        <v>19</v>
-      </c>
-      <c r="G446" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G446" t="s"/>
       <c r="H446" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13461,11 +12526,9 @@
       <c r="F447" t="s">
         <v>11</v>
       </c>
-      <c r="G447" t="s">
-        <v>12</v>
-      </c>
+      <c r="G447" t="s"/>
       <c r="H447" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13485,13 +12548,11 @@
         <v>10</v>
       </c>
       <c r="F448" t="s">
-        <v>19</v>
-      </c>
-      <c r="G448" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G448" t="s"/>
       <c r="H448" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13513,11 +12574,9 @@
       <c r="F449" t="s">
         <v>11</v>
       </c>
-      <c r="G449" t="s">
-        <v>12</v>
-      </c>
+      <c r="G449" t="s"/>
       <c r="H449" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13537,13 +12596,11 @@
         <v>10</v>
       </c>
       <c r="F450" t="s">
-        <v>19</v>
-      </c>
-      <c r="G450" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G450" t="s"/>
       <c r="H450" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13565,11 +12622,9 @@
       <c r="F451" t="s">
         <v>11</v>
       </c>
-      <c r="G451" t="s">
-        <v>12</v>
-      </c>
+      <c r="G451" t="s"/>
       <c r="H451" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13589,13 +12644,11 @@
         <v>10</v>
       </c>
       <c r="F452" t="s">
-        <v>19</v>
-      </c>
-      <c r="G452" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G452" t="s"/>
       <c r="H452" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13617,11 +12670,9 @@
       <c r="F453" t="s">
         <v>11</v>
       </c>
-      <c r="G453" t="s">
-        <v>12</v>
-      </c>
+      <c r="G453" t="s"/>
       <c r="H453" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13641,13 +12692,11 @@
         <v>10</v>
       </c>
       <c r="F454" t="s">
-        <v>19</v>
-      </c>
-      <c r="G454" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G454" t="s"/>
       <c r="H454" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13669,11 +12718,9 @@
       <c r="F455" t="s">
         <v>11</v>
       </c>
-      <c r="G455" t="s">
-        <v>12</v>
-      </c>
+      <c r="G455" t="s"/>
       <c r="H455" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13693,13 +12740,11 @@
         <v>10</v>
       </c>
       <c r="F456" t="s">
-        <v>19</v>
-      </c>
-      <c r="G456" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G456" t="s"/>
       <c r="H456" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13721,11 +12766,9 @@
       <c r="F457" t="s">
         <v>11</v>
       </c>
-      <c r="G457" t="s">
-        <v>12</v>
-      </c>
+      <c r="G457" t="s"/>
       <c r="H457" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13745,13 +12788,11 @@
         <v>10</v>
       </c>
       <c r="F458" t="s">
-        <v>19</v>
-      </c>
-      <c r="G458" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G458" t="s"/>
       <c r="H458" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -13773,11 +12814,9 @@
       <c r="F459" t="s">
         <v>11</v>
       </c>
-      <c r="G459" t="s">
-        <v>12</v>
-      </c>
+      <c r="G459" t="s"/>
       <c r="H459" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -13797,13 +12836,11 @@
         <v>10</v>
       </c>
       <c r="F460" t="s">
-        <v>19</v>
-      </c>
-      <c r="G460" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G460" t="s"/>
       <c r="H460" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -13825,11 +12862,9 @@
       <c r="F461" t="s">
         <v>11</v>
       </c>
-      <c r="G461" t="s">
-        <v>12</v>
-      </c>
+      <c r="G461" t="s"/>
       <c r="H461" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -13849,13 +12884,11 @@
         <v>10</v>
       </c>
       <c r="F462" t="s">
-        <v>14</v>
-      </c>
-      <c r="G462" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G462" t="s"/>
       <c r="H462" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -13875,13 +12908,11 @@
         <v>10</v>
       </c>
       <c r="F463" t="s">
-        <v>19</v>
-      </c>
-      <c r="G463" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G463" t="s"/>
       <c r="H463" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -13901,13 +12932,11 @@
         <v>10</v>
       </c>
       <c r="F464" t="s">
-        <v>14</v>
-      </c>
-      <c r="G464" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G464" t="s"/>
       <c r="H464" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -13927,13 +12956,11 @@
         <v>10</v>
       </c>
       <c r="F465" t="s">
-        <v>19</v>
-      </c>
-      <c r="G465" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G465" t="s"/>
       <c r="H465" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -13953,13 +12980,11 @@
         <v>10</v>
       </c>
       <c r="F466" t="s">
-        <v>14</v>
-      </c>
-      <c r="G466" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G466" t="s"/>
       <c r="H466" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -13979,13 +13004,11 @@
         <v>10</v>
       </c>
       <c r="F467" t="s">
-        <v>19</v>
-      </c>
-      <c r="G467" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G467" t="s"/>
       <c r="H467" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14005,13 +13028,11 @@
         <v>10</v>
       </c>
       <c r="F468" t="s">
-        <v>14</v>
-      </c>
-      <c r="G468" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G468" t="s"/>
       <c r="H468" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14033,11 +13054,9 @@
       <c r="F469" t="s">
         <v>11</v>
       </c>
-      <c r="G469" t="s">
-        <v>12</v>
-      </c>
+      <c r="G469" t="s"/>
       <c r="H469" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
